--- a/projects/bicycle_bom/bicycle_bom.xlsx
+++ b/projects/bicycle_bom/bicycle_bom.xlsx
@@ -19,7 +19,7 @@
     <t>대표값</t>
   </si>
   <si>
-    <t>상위대표값</t>
+    <t>하위대표값</t>
   </si>
   <si>
     <t>Bicycle</t>
